--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,90 +49,99 @@
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
+    <t>waste</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>apart</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>size</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>use</t>
+    <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
@@ -142,45 +151,48 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>best</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
@@ -191,6 +203,9 @@
   </si>
   <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -557,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>0.8387096774193549</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8028169014084507</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.8307692307692308</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7311827956989247</v>
+        <v>0.734375</v>
       </c>
       <c r="C6">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.765625</v>
+        <v>0.796875</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.65625</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.660377358490566</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6504854368932039</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C8">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.6376811594202898</v>
+        <v>0.5896700143472023</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6418918918918919</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C9">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="D9">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.5824964131994261</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L9">
-        <v>406</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>406</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>291</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6181818181818182</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.5435684647302904</v>
+        <v>0.524896265560166</v>
       </c>
       <c r="L10">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M10">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5740740740740741</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.4737704918032787</v>
+        <v>0.4770491803278689</v>
       </c>
       <c r="L11">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M11">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5462184873949579</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C12">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.4036697247706422</v>
+        <v>0.3674698795180723</v>
       </c>
       <c r="L12">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="M12">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>195</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,37 +1141,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5261627906976745</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C13">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D13">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>0.3554216867469879</v>
+        <v>0.3547400611620795</v>
       </c>
       <c r="L13">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="M13">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>107</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4566929133858268</v>
+        <v>0.4296875</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.3386243386243386</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,16 +1262,16 @@
         <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.3166666666666667</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>82</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4028436018957346</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C16">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K16">
         <v>0.25</v>
@@ -1347,16 +1362,16 @@
         <v>57</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.1847389558232932</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>203</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3595505617977528</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1394,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>0.1827956989247312</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>152</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3203125</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,31 +1459,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.1701754385964912</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L19">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>946</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1491,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2920792079207921</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C20">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,31 +1509,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.1045576407506702</v>
+        <v>0.1615452151009658</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>334</v>
+        <v>955</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1526,13 +1541,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2164948453608248</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1544,31 +1559,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.08966861598440545</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="L21">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1401</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1992753623188406</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="C22">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1594,31 +1609,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.06</v>
+        <v>0.1002785515320334</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N22">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>705</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1626,13 +1641,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1780415430267062</v>
+        <v>0.22</v>
       </c>
       <c r="C23">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D23">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1644,7 +1659,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>554</v>
+        <v>156</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23">
+        <v>0.0988296488946684</v>
+      </c>
+      <c r="L23">
+        <v>152</v>
+      </c>
+      <c r="M23">
+        <v>155</v>
+      </c>
+      <c r="N23">
+        <v>0.98</v>
+      </c>
+      <c r="O23">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1386</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1652,25 +1691,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.175792507204611</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C24">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E24">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>286</v>
+        <v>258</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24">
+        <v>0.04</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>32</v>
+      </c>
+      <c r="N24">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>720</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1678,13 +1741,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1708860759493671</v>
+        <v>0.1824925816023739</v>
       </c>
       <c r="C25">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="D25">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1696,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>262</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1704,13 +1767,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.17</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1722,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>166</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1730,25 +1793,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1677215189873418</v>
+        <v>0.1786743515850144</v>
       </c>
       <c r="C27">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1756,25 +1819,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1589403973509934</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C28">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D28">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F28">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>381</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1782,13 +1845,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1542056074766355</v>
+        <v>0.1675392670157068</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1800,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1808,25 +1871,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1295546558704453</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>215</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1834,13 +1897,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1086142322097378</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1852,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>238</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1860,13 +1923,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.08241758241758242</v>
+        <v>0.1336032388663968</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>0.03</v>
@@ -1878,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>334</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1886,25 +1949,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.06611570247933884</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D33">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E33">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F33">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>565</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1912,25 +1975,103 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0548469387755102</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="C34">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>741</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.07947019867549669</v>
+      </c>
+      <c r="C35">
+        <v>48</v>
+      </c>
+      <c r="D35">
+        <v>52</v>
+      </c>
+      <c r="E35">
+        <v>0.08</v>
+      </c>
+      <c r="F35">
+        <v>0.92</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.04754601226993865</v>
+      </c>
+      <c r="C36">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>0.09</v>
+      </c>
+      <c r="F36">
+        <v>0.91</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.04203821656050955</v>
+      </c>
+      <c r="C37">
+        <v>33</v>
+      </c>
+      <c r="D37">
+        <v>42</v>
+      </c>
+      <c r="E37">
+        <v>0.21</v>
+      </c>
+      <c r="F37">
+        <v>0.79</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>752</v>
       </c>
     </row>
   </sheetData>
